--- a/spendingrecord.xlsx
+++ b/spendingrecord.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenneth\Documents\GitHub\Budget tracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAE4F95-0BBA-44AD-B262-93ABF44CB4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -76,36 +82,12 @@
     <t>28/5/2021</t>
   </si>
   <si>
-    <t>T&amp;T Supermarket</t>
-  </si>
-  <si>
-    <t>Husky Gas</t>
-  </si>
-  <si>
-    <t>Toronto parking</t>
-  </si>
-  <si>
-    <t>aroma</t>
-  </si>
-  <si>
-    <t>previous utility</t>
-  </si>
-  <si>
-    <t>Previous wifi</t>
-  </si>
-  <si>
     <t>Investment</t>
   </si>
   <si>
     <t>amazon</t>
   </si>
   <si>
-    <t>gorcery</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
     <t>sushi</t>
   </si>
   <si>
@@ -118,9 +100,6 @@
     <t>choco</t>
   </si>
   <si>
-    <t>Grammarly</t>
-  </si>
-  <si>
     <t>Food</t>
   </si>
   <si>
@@ -130,39 +109,21 @@
     <t>bday cake</t>
   </si>
   <si>
-    <t>withdrawal</t>
-  </si>
-  <si>
-    <t>via for 19 may</t>
-  </si>
-  <si>
-    <t>gpark</t>
-  </si>
-  <si>
     <t>meds</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>cfa whisky</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
     <t>burger</t>
   </si>
   <si>
-    <t>transportation</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>coffer</t>
-  </si>
-  <si>
     <t>lunch</t>
   </si>
   <si>
@@ -178,12 +139,6 @@
     <t>utility bill (with 300 securitiy deposit)</t>
   </si>
   <si>
-    <t>mousr</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
     <t>ps5</t>
   </si>
   <si>
@@ -203,16 +158,43 @@
   </si>
   <si>
     <t>Health/medical</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utility </t>
+  </si>
+  <si>
+    <t>improvement</t>
+  </si>
+  <si>
+    <t>courses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +258,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -322,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,9 +344,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,6 +396,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,14 +589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,21 +612,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44201</v>
       </c>
       <c r="B2">
-        <v>154.2</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44201</v>
       </c>
@@ -606,13 +634,13 @@
         <v>18.36</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44201</v>
       </c>
@@ -620,13 +648,13 @@
         <v>17.5</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44201</v>
       </c>
@@ -634,13 +662,13 @@
         <v>7.39</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44260</v>
       </c>
@@ -648,13 +676,13 @@
         <v>22.55</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44260</v>
       </c>
@@ -662,13 +690,13 @@
         <v>20.7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44260</v>
       </c>
@@ -676,13 +704,13 @@
         <v>463.6</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44291</v>
       </c>
@@ -690,13 +718,13 @@
         <v>21.46</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44291</v>
       </c>
@@ -704,13 +732,13 @@
         <v>35.24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44321</v>
       </c>
@@ -718,13 +746,13 @@
         <v>6.52</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44352</v>
       </c>
@@ -732,13 +760,13 @@
         <v>17.22</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44382</v>
       </c>
@@ -746,13 +774,13 @@
         <v>18.21</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44382</v>
       </c>
@@ -760,13 +788,13 @@
         <v>107.35</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44413</v>
       </c>
@@ -774,13 +802,13 @@
         <v>7.39</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44444</v>
       </c>
@@ -788,13 +816,13 @@
         <v>76.14</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44474</v>
       </c>
@@ -802,13 +830,13 @@
         <v>21.54</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44505</v>
       </c>
@@ -816,13 +844,13 @@
         <v>85.91</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44535</v>
       </c>
@@ -830,13 +858,13 @@
         <v>18.11</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -844,13 +872,13 @@
         <v>44.12</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -858,13 +886,13 @@
         <v>29.81</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -872,13 +900,13 @@
         <v>28.43</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -886,13 +914,13 @@
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -900,13 +928,13 @@
         <v>41.81</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -914,13 +942,13 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -928,13 +956,13 @@
         <v>7.39</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -942,13 +970,13 @@
         <v>28.24</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -956,13 +984,13 @@
         <v>23.17</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -970,13 +998,13 @@
         <v>23.48</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -984,13 +1012,13 @@
         <v>2.25</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -998,27 +1026,27 @@
         <v>49.95</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32">
-        <v>38.05</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1026,13 +1054,13 @@
         <v>23.17</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1040,13 +1068,13 @@
         <v>46.16</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1054,13 +1082,13 @@
         <v>8.35</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1068,13 +1096,13 @@
         <v>46.75</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1082,13 +1110,13 @@
         <v>25.92</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1096,13 +1124,13 @@
         <v>22.55</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1110,13 +1138,13 @@
         <v>22.67</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1124,13 +1152,13 @@
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1138,13 +1166,13 @@
         <v>17.97</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1152,13 +1180,13 @@
         <v>6.79</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1166,13 +1194,13 @@
         <v>56.11</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1180,27 +1208,27 @@
         <v>14.33</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45">
-        <v>34.91</v>
+        <v>34.909999999999997</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1208,13 +1236,13 @@
         <v>63.35</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1222,13 +1250,13 @@
         <v>11.28</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -1236,13 +1264,13 @@
         <v>24.43</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -1250,13 +1278,13 @@
         <v>415.76</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1264,13 +1292,13 @@
         <v>33.89</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -1278,13 +1306,13 @@
         <v>23.83</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1292,13 +1320,13 @@
         <v>1.24</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1306,13 +1334,13 @@
         <v>26.72</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1320,13 +1348,13 @@
         <v>22.23</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1334,13 +1362,13 @@
         <v>714.15</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1348,10 +1376,10 @@
         <v>31.92</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/spendingrecord.xlsx
+++ b/spendingrecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenneth\Documents\GitHub\Budget tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAE4F95-0BBA-44AD-B262-93ABF44CB4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C1391-4BBF-470D-B111-7DFBBA6D5719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>tea</t>
   </si>
   <si>
-    <t>utility bill (with 300 securitiy deposit)</t>
-  </si>
-  <si>
     <t>ps5</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>courses</t>
+  </si>
+  <si>
+    <t>utility bill</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>17.5</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>7.39</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -676,10 +676,10 @@
         <v>22.55</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>20.7</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,7 +721,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>6.52</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,10 +816,10 @@
         <v>76.14</v>
       </c>
       <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -914,10 +914,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,10 +928,10 @@
         <v>41.81</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -942,10 +942,10 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1026,10 +1026,10 @@
         <v>49.95</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>22.55</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -1155,7 +1155,7 @@
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,10 +1278,10 @@
         <v>415.76</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,10 +1292,10 @@
         <v>33.89</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,10 +1320,10 @@
         <v>1.24</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,10 +1362,10 @@
         <v>714.15</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
